--- a/_tutorial_files/tutorial_read_table_TTT.xlsx
+++ b/_tutorial_files/tutorial_read_table_TTT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tillmacher/Documents/GitHub/TaxonTableTools/_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tillmacher/Documents/GitHub/TaxonTableTools/_tutorial_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2173A8-6120-D248-8EC8-A2774D54827E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC11AB5D-5D9A-8345-B418-A745A4216BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="15980" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JAMP_read_table" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,6 @@
     <t>NC_2</t>
   </si>
   <si>
-    <t>Sequences</t>
-  </si>
-  <si>
     <t>OTU_1</t>
   </si>
   <si>
@@ -3365,6 +3362,9 @@
   </si>
   <si>
     <t>Gelnhausen_RMO2_9_b</t>
+  </si>
+  <si>
+    <t>Seq</t>
   </si>
 </sst>
 </file>
@@ -3404,10 +3404,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3685,8 +3684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG542"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X38" sqref="X38"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3707,108 +3706,108 @@
   <sheetData>
     <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>1090</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>1091</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>1092</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>1094</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>1095</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>1096</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>1097</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>1098</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>1102</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>1103</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>1105</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>1106</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>1108</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>1109</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>1110</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>1111</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="1" t="s">
         <v>1112</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="1" t="s">
         <v>1113</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>1114</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3904,12 +3903,12 @@
         <v>21</v>
       </c>
       <c r="AG2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4005,12 +4004,12 @@
         <v>44</v>
       </c>
       <c r="AG3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>53646</v>
@@ -4106,12 +4105,12 @@
         <v>8</v>
       </c>
       <c r="AG4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4207,12 +4206,12 @@
         <v>24</v>
       </c>
       <c r="AG5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4308,12 +4307,12 @@
         <v>12</v>
       </c>
       <c r="AG6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>39207</v>
@@ -4409,12 +4408,12 @@
         <v>0</v>
       </c>
       <c r="AG7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4510,12 +4509,12 @@
         <v>19</v>
       </c>
       <c r="AG8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4611,12 +4610,12 @@
         <v>0</v>
       </c>
       <c r="AG9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>17276</v>
@@ -4712,12 +4711,12 @@
         <v>2</v>
       </c>
       <c r="AG10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -4813,12 +4812,12 @@
         <v>0</v>
       </c>
       <c r="AG11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>660</v>
@@ -4914,12 +4913,12 @@
         <v>8</v>
       </c>
       <c r="AG12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>110</v>
@@ -5015,12 +5014,12 @@
         <v>5</v>
       </c>
       <c r="AG13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>39711</v>
@@ -5116,12 +5115,12 @@
         <v>0</v>
       </c>
       <c r="AG14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15">
         <v>34624</v>
@@ -5217,12 +5216,12 @@
         <v>0</v>
       </c>
       <c r="AG15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16">
         <v>14166</v>
@@ -5318,12 +5317,12 @@
         <v>0</v>
       </c>
       <c r="AG16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -5419,12 +5418,12 @@
         <v>0</v>
       </c>
       <c r="AG17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18">
         <v>79829</v>
@@ -5520,12 +5519,12 @@
         <v>0</v>
       </c>
       <c r="AG18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -5621,12 +5620,12 @@
         <v>3</v>
       </c>
       <c r="AG19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20">
         <v>26395</v>
@@ -5722,12 +5721,12 @@
         <v>0</v>
       </c>
       <c r="AG20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21">
         <v>161</v>
@@ -5823,12 +5822,12 @@
         <v>1</v>
       </c>
       <c r="AG21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22">
         <v>2030</v>
@@ -5924,12 +5923,12 @@
         <v>3</v>
       </c>
       <c r="AG22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -6025,12 +6024,12 @@
         <v>4</v>
       </c>
       <c r="AG23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -6126,12 +6125,12 @@
         <v>4</v>
       </c>
       <c r="AG24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -6227,12 +6226,12 @@
         <v>0</v>
       </c>
       <c r="AG25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -6328,12 +6327,12 @@
         <v>0</v>
       </c>
       <c r="AG26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -6429,12 +6428,12 @@
         <v>9</v>
       </c>
       <c r="AG27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28">
         <v>33384</v>
@@ -6530,12 +6529,12 @@
         <v>0</v>
       </c>
       <c r="AG28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29">
         <v>17602</v>
@@ -6631,12 +6630,12 @@
         <v>0</v>
       </c>
       <c r="AG29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -6732,12 +6731,12 @@
         <v>0</v>
       </c>
       <c r="AG30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B31">
         <v>1098</v>
@@ -6833,12 +6832,12 @@
         <v>1</v>
       </c>
       <c r="AG31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -6934,12 +6933,12 @@
         <v>2</v>
       </c>
       <c r="AG32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B33">
         <v>31837</v>
@@ -7035,12 +7034,12 @@
         <v>0</v>
       </c>
       <c r="AG33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B34">
         <v>25968</v>
@@ -7136,12 +7135,12 @@
         <v>0</v>
       </c>
       <c r="AG34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B35">
         <v>13923</v>
@@ -7237,12 +7236,12 @@
         <v>0</v>
       </c>
       <c r="AG35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B36">
         <v>7413</v>
@@ -7338,12 +7337,12 @@
         <v>0</v>
       </c>
       <c r="AG36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -7439,12 +7438,12 @@
         <v>4</v>
       </c>
       <c r="AG37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -7540,12 +7539,12 @@
         <v>0</v>
       </c>
       <c r="AG38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B39">
         <v>7305</v>
@@ -7641,12 +7640,12 @@
         <v>1</v>
       </c>
       <c r="AG39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B40">
         <v>1580</v>
@@ -7742,12 +7741,12 @@
         <v>2</v>
       </c>
       <c r="AG40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -7843,12 +7842,12 @@
         <v>0</v>
       </c>
       <c r="AG41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B42">
         <v>34549</v>
@@ -7944,12 +7943,12 @@
         <v>0</v>
       </c>
       <c r="AG42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B43">
         <v>574</v>
@@ -8045,12 +8044,12 @@
         <v>0</v>
       </c>
       <c r="AG43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B44">
         <v>6899</v>
@@ -8146,12 +8145,12 @@
         <v>0</v>
       </c>
       <c r="AG44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -8247,12 +8246,12 @@
         <v>0</v>
       </c>
       <c r="AG45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B46">
         <v>5064</v>
@@ -8348,12 +8347,12 @@
         <v>0</v>
       </c>
       <c r="AG46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -8449,12 +8448,12 @@
         <v>1</v>
       </c>
       <c r="AG47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B48">
         <v>3136</v>
@@ -8550,12 +8549,12 @@
         <v>0</v>
       </c>
       <c r="AG48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B49">
         <v>4514</v>
@@ -8651,12 +8650,12 @@
         <v>0</v>
       </c>
       <c r="AG49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -8752,12 +8751,12 @@
         <v>1</v>
       </c>
       <c r="AG50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B51">
         <v>1113</v>
@@ -8853,12 +8852,12 @@
         <v>0</v>
       </c>
       <c r="AG51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -8954,12 +8953,12 @@
         <v>0</v>
       </c>
       <c r="AG52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B53">
         <v>165</v>
@@ -9055,12 +9054,12 @@
         <v>0</v>
       </c>
       <c r="AG53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B54">
         <v>972</v>
@@ -9156,12 +9155,12 @@
         <v>0</v>
       </c>
       <c r="AG54" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -9257,12 +9256,12 @@
         <v>0</v>
       </c>
       <c r="AG55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B56">
         <v>690</v>
@@ -9358,12 +9357,12 @@
         <v>1</v>
       </c>
       <c r="AG56" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -9459,12 +9458,12 @@
         <v>0</v>
       </c>
       <c r="AG57" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -9560,12 +9559,12 @@
         <v>0</v>
       </c>
       <c r="AG58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -9661,12 +9660,12 @@
         <v>0</v>
       </c>
       <c r="AG59" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -9762,12 +9761,12 @@
         <v>0</v>
       </c>
       <c r="AG60" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B61">
         <v>4981</v>
@@ -9863,12 +9862,12 @@
         <v>0</v>
       </c>
       <c r="AG61" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B62">
         <v>3608</v>
@@ -9964,12 +9963,12 @@
         <v>0</v>
       </c>
       <c r="AG62" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -10065,12 +10064,12 @@
         <v>0</v>
       </c>
       <c r="AG63" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B64">
         <v>3076</v>
@@ -10166,12 +10165,12 @@
         <v>0</v>
       </c>
       <c r="AG64" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -10267,12 +10266,12 @@
         <v>0</v>
       </c>
       <c r="AG65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -10368,12 +10367,12 @@
         <v>1</v>
       </c>
       <c r="AG66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B67">
         <v>2227</v>
@@ -10469,12 +10468,12 @@
         <v>0</v>
       </c>
       <c r="AG67" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -10570,12 +10569,12 @@
         <v>0</v>
       </c>
       <c r="AG68" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -10671,12 +10670,12 @@
         <v>1</v>
       </c>
       <c r="AG69" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B70">
         <v>142</v>
@@ -10772,12 +10771,12 @@
         <v>1</v>
       </c>
       <c r="AG70" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B71">
         <v>1397</v>
@@ -10873,12 +10872,12 @@
         <v>0</v>
       </c>
       <c r="AG71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B72">
         <v>3744</v>
@@ -10974,12 +10973,12 @@
         <v>0</v>
       </c>
       <c r="AG72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -11075,12 +11074,12 @@
         <v>0</v>
       </c>
       <c r="AG73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B74">
         <v>267</v>
@@ -11176,12 +11175,12 @@
         <v>0</v>
       </c>
       <c r="AG74" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -11277,12 +11276,12 @@
         <v>0</v>
       </c>
       <c r="AG75" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -11378,12 +11377,12 @@
         <v>0</v>
       </c>
       <c r="AG76" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -11479,12 +11478,12 @@
         <v>0</v>
       </c>
       <c r="AG77" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -11580,12 +11579,12 @@
         <v>0</v>
       </c>
       <c r="AG78" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -11681,12 +11680,12 @@
         <v>0</v>
       </c>
       <c r="AG79" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -11782,12 +11781,12 @@
         <v>0</v>
       </c>
       <c r="AG80" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -11883,12 +11882,12 @@
         <v>0</v>
       </c>
       <c r="AG81" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -11984,12 +11983,12 @@
         <v>0</v>
       </c>
       <c r="AG82" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -12085,12 +12084,12 @@
         <v>0</v>
       </c>
       <c r="AG83" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B84">
         <v>770</v>
@@ -12186,12 +12185,12 @@
         <v>0</v>
       </c>
       <c r="AG84" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -12287,12 +12286,12 @@
         <v>2</v>
       </c>
       <c r="AG85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B86">
         <v>2393</v>
@@ -12388,12 +12387,12 @@
         <v>0</v>
       </c>
       <c r="AG86" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -12489,12 +12488,12 @@
         <v>2</v>
       </c>
       <c r="AG87" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B88">
         <v>1586</v>
@@ -12590,12 +12589,12 @@
         <v>0</v>
       </c>
       <c r="AG88" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -12691,12 +12690,12 @@
         <v>1</v>
       </c>
       <c r="AG89" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -12792,12 +12791,12 @@
         <v>0</v>
       </c>
       <c r="AG90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B91">
         <v>387</v>
@@ -12893,12 +12892,12 @@
         <v>2</v>
       </c>
       <c r="AG91" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -12994,12 +12993,12 @@
         <v>0</v>
       </c>
       <c r="AG92" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -13095,12 +13094,12 @@
         <v>0</v>
       </c>
       <c r="AG93" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -13196,12 +13195,12 @@
         <v>0</v>
       </c>
       <c r="AG94" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B95">
         <v>1847</v>
@@ -13297,12 +13296,12 @@
         <v>0</v>
       </c>
       <c r="AG95" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B96">
         <v>1110</v>
@@ -13398,12 +13397,12 @@
         <v>0</v>
       </c>
       <c r="AG96" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="97" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -13499,12 +13498,12 @@
         <v>0</v>
       </c>
       <c r="AG97" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="98" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -13600,12 +13599,12 @@
         <v>0</v>
       </c>
       <c r="AG98" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="99" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B99">
         <v>680</v>
@@ -13701,12 +13700,12 @@
         <v>0</v>
       </c>
       <c r="AG99" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="100" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -13802,12 +13801,12 @@
         <v>0</v>
       </c>
       <c r="AG100" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="101" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -13903,12 +13902,12 @@
         <v>1</v>
       </c>
       <c r="AG101" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="102" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B102">
         <v>388</v>
@@ -14004,12 +14003,12 @@
         <v>0</v>
       </c>
       <c r="AG102" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="103" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -14105,12 +14104,12 @@
         <v>0</v>
       </c>
       <c r="AG103" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="104" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -14206,12 +14205,12 @@
         <v>0</v>
       </c>
       <c r="AG104" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="105" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -14307,12 +14306,12 @@
         <v>0</v>
       </c>
       <c r="AG105" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="106" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B106">
         <v>1057</v>
@@ -14408,12 +14407,12 @@
         <v>0</v>
       </c>
       <c r="AG106" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="107" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -14509,12 +14508,12 @@
         <v>0</v>
       </c>
       <c r="AG107" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="108" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -14610,12 +14609,12 @@
         <v>0</v>
       </c>
       <c r="AG108" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="109" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -14711,12 +14710,12 @@
         <v>0</v>
       </c>
       <c r="AG109" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="110" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -14812,12 +14811,12 @@
         <v>0</v>
       </c>
       <c r="AG110" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="111" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B111">
         <v>1347</v>
@@ -14913,12 +14912,12 @@
         <v>0</v>
       </c>
       <c r="AG111" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="112" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -15014,12 +15013,12 @@
         <v>0</v>
       </c>
       <c r="AG112" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="113" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -15115,12 +15114,12 @@
         <v>1</v>
       </c>
       <c r="AG113" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="114" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -15216,12 +15215,12 @@
         <v>0</v>
       </c>
       <c r="AG114" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="115" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B115">
         <v>367</v>
@@ -15317,12 +15316,12 @@
         <v>0</v>
       </c>
       <c r="AG115" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="116" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -15418,12 +15417,12 @@
         <v>0</v>
       </c>
       <c r="AG116" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="117" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -15519,12 +15518,12 @@
         <v>0</v>
       </c>
       <c r="AG117" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="118" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -15620,12 +15619,12 @@
         <v>0</v>
       </c>
       <c r="AG118" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="119" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -15721,12 +15720,12 @@
         <v>0</v>
       </c>
       <c r="AG119" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="120" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -15822,12 +15821,12 @@
         <v>0</v>
       </c>
       <c r="AG120" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="121" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -15923,12 +15922,12 @@
         <v>0</v>
       </c>
       <c r="AG121" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="122" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -16024,12 +16023,12 @@
         <v>0</v>
       </c>
       <c r="AG122" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="123" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -16125,12 +16124,12 @@
         <v>0</v>
       </c>
       <c r="AG123" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="124" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -16226,12 +16225,12 @@
         <v>0</v>
       </c>
       <c r="AG124" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="125" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -16327,12 +16326,12 @@
         <v>0</v>
       </c>
       <c r="AG125" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="126" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -16428,12 +16427,12 @@
         <v>0</v>
       </c>
       <c r="AG126" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="127" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -16529,12 +16528,12 @@
         <v>0</v>
       </c>
       <c r="AG127" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="128" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -16630,12 +16629,12 @@
         <v>0</v>
       </c>
       <c r="AG128" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="129" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -16731,12 +16730,12 @@
         <v>0</v>
       </c>
       <c r="AG129" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="130" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -16832,12 +16831,12 @@
         <v>0</v>
       </c>
       <c r="AG130" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="131" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -16933,12 +16932,12 @@
         <v>0</v>
       </c>
       <c r="AG131" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="132" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -17034,12 +17033,12 @@
         <v>0</v>
       </c>
       <c r="AG132" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="133" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -17135,12 +17134,12 @@
         <v>0</v>
       </c>
       <c r="AG133" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="134" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -17236,12 +17235,12 @@
         <v>0</v>
       </c>
       <c r="AG134" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="135" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B135">
         <v>738</v>
@@ -17337,12 +17336,12 @@
         <v>0</v>
       </c>
       <c r="AG135" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="136" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -17438,12 +17437,12 @@
         <v>0</v>
       </c>
       <c r="AG136" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="137" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B137">
         <v>564</v>
@@ -17539,12 +17538,12 @@
         <v>0</v>
       </c>
       <c r="AG137" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="138" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B138">
         <v>67</v>
@@ -17640,12 +17639,12 @@
         <v>0</v>
       </c>
       <c r="AG138" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="139" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -17741,12 +17740,12 @@
         <v>0</v>
       </c>
       <c r="AG139" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="140" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B140">
         <v>104</v>
@@ -17842,12 +17841,12 @@
         <v>0</v>
       </c>
       <c r="AG140" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="141" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B141">
         <v>172</v>
@@ -17943,12 +17942,12 @@
         <v>0</v>
       </c>
       <c r="AG141" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="142" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B142">
         <v>665</v>
@@ -18044,12 +18043,12 @@
         <v>0</v>
       </c>
       <c r="AG142" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="143" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -18145,12 +18144,12 @@
         <v>0</v>
       </c>
       <c r="AG143" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="144" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -18246,12 +18245,12 @@
         <v>0</v>
       </c>
       <c r="AG144" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="145" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B145">
         <v>261</v>
@@ -18347,12 +18346,12 @@
         <v>0</v>
       </c>
       <c r="AG145" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="146" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -18448,12 +18447,12 @@
         <v>0</v>
       </c>
       <c r="AG146" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="147" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -18549,12 +18548,12 @@
         <v>0</v>
       </c>
       <c r="AG147" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="148" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -18650,12 +18649,12 @@
         <v>0</v>
       </c>
       <c r="AG148" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="149" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -18751,12 +18750,12 @@
         <v>0</v>
       </c>
       <c r="AG149" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="150" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -18852,12 +18851,12 @@
         <v>0</v>
       </c>
       <c r="AG150" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="151" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -18953,12 +18952,12 @@
         <v>0</v>
       </c>
       <c r="AG151" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="152" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -19054,12 +19053,12 @@
         <v>0</v>
       </c>
       <c r="AG152" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="153" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -19155,12 +19154,12 @@
         <v>0</v>
       </c>
       <c r="AG153" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="154" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B154">
         <v>411</v>
@@ -19256,12 +19255,12 @@
         <v>0</v>
       </c>
       <c r="AG154" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="155" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -19357,12 +19356,12 @@
         <v>0</v>
       </c>
       <c r="AG155" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="156" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B156">
         <v>291</v>
@@ -19458,12 +19457,12 @@
         <v>0</v>
       </c>
       <c r="AG156" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="157" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B157">
         <v>272</v>
@@ -19559,12 +19558,12 @@
         <v>0</v>
       </c>
       <c r="AG157" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="158" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B158">
         <v>475</v>
@@ -19660,12 +19659,12 @@
         <v>0</v>
       </c>
       <c r="AG158" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="159" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -19761,12 +19760,12 @@
         <v>0</v>
       </c>
       <c r="AG159" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="160" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -19862,12 +19861,12 @@
         <v>0</v>
       </c>
       <c r="AG160" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="161" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -19963,12 +19962,12 @@
         <v>0</v>
       </c>
       <c r="AG161" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="162" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B162">
         <v>623</v>
@@ -20064,12 +20063,12 @@
         <v>0</v>
       </c>
       <c r="AG162" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="163" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -20165,12 +20164,12 @@
         <v>0</v>
       </c>
       <c r="AG163" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="164" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -20266,12 +20265,12 @@
         <v>0</v>
       </c>
       <c r="AG164" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="165" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -20367,12 +20366,12 @@
         <v>0</v>
       </c>
       <c r="AG165" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="166" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -20468,12 +20467,12 @@
         <v>0</v>
       </c>
       <c r="AG166" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="167" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B167">
         <v>163</v>
@@ -20569,12 +20568,12 @@
         <v>0</v>
       </c>
       <c r="AG167" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="168" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -20670,12 +20669,12 @@
         <v>0</v>
       </c>
       <c r="AG168" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="169" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -20771,12 +20770,12 @@
         <v>0</v>
       </c>
       <c r="AG169" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="170" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -20872,12 +20871,12 @@
         <v>0</v>
       </c>
       <c r="AG170" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="171" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -20973,12 +20972,12 @@
         <v>0</v>
       </c>
       <c r="AG171" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="172" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -21074,12 +21073,12 @@
         <v>0</v>
       </c>
       <c r="AG172" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="173" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B173">
         <v>302</v>
@@ -21175,12 +21174,12 @@
         <v>0</v>
       </c>
       <c r="AG173" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="174" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B174">
         <v>264</v>
@@ -21276,12 +21275,12 @@
         <v>0</v>
       </c>
       <c r="AG174" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="175" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -21377,12 +21376,12 @@
         <v>0</v>
       </c>
       <c r="AG175" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="176" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -21478,12 +21477,12 @@
         <v>0</v>
       </c>
       <c r="AG176" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="177" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -21579,12 +21578,12 @@
         <v>0</v>
       </c>
       <c r="AG177" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="178" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -21680,12 +21679,12 @@
         <v>0</v>
       </c>
       <c r="AG178" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="179" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -21781,12 +21780,12 @@
         <v>0</v>
       </c>
       <c r="AG179" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="180" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B180">
         <v>326</v>
@@ -21882,12 +21881,12 @@
         <v>0</v>
       </c>
       <c r="AG180" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="181" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B181">
         <v>189</v>
@@ -21983,12 +21982,12 @@
         <v>0</v>
       </c>
       <c r="AG181" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="182" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B182">
         <v>310</v>
@@ -22084,12 +22083,12 @@
         <v>0</v>
       </c>
       <c r="AG182" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="183" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -22185,12 +22184,12 @@
         <v>0</v>
       </c>
       <c r="AG183" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="184" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B184">
         <v>174</v>
@@ -22286,12 +22285,12 @@
         <v>0</v>
       </c>
       <c r="AG184" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="185" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -22387,12 +22386,12 @@
         <v>0</v>
       </c>
       <c r="AG185" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="186" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -22488,12 +22487,12 @@
         <v>0</v>
       </c>
       <c r="AG186" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="187" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -22589,12 +22588,12 @@
         <v>0</v>
       </c>
       <c r="AG187" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="188" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -22690,12 +22689,12 @@
         <v>0</v>
       </c>
       <c r="AG188" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="189" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -22791,12 +22790,12 @@
         <v>0</v>
       </c>
       <c r="AG189" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="190" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -22892,12 +22891,12 @@
         <v>1</v>
       </c>
       <c r="AG190" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="191" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -22993,12 +22992,12 @@
         <v>0</v>
       </c>
       <c r="AG191" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="192" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -23094,12 +23093,12 @@
         <v>0</v>
       </c>
       <c r="AG192" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="193" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -23195,12 +23194,12 @@
         <v>0</v>
       </c>
       <c r="AG193" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="194" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -23296,12 +23295,12 @@
         <v>0</v>
       </c>
       <c r="AG194" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="195" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B195">
         <v>228</v>
@@ -23397,12 +23396,12 @@
         <v>0</v>
       </c>
       <c r="AG195" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="196" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -23498,12 +23497,12 @@
         <v>0</v>
       </c>
       <c r="AG196" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="197" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B197">
         <v>0</v>
@@ -23599,12 +23598,12 @@
         <v>0</v>
       </c>
       <c r="AG197" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="198" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B198">
         <v>314</v>
@@ -23700,12 +23699,12 @@
         <v>0</v>
       </c>
       <c r="AG198" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="199" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B199">
         <v>0</v>
@@ -23801,12 +23800,12 @@
         <v>0</v>
       </c>
       <c r="AG199" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="200" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B200">
         <v>216</v>
@@ -23902,12 +23901,12 @@
         <v>0</v>
       </c>
       <c r="AG200" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="201" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B201">
         <v>0</v>
@@ -24003,12 +24002,12 @@
         <v>0</v>
       </c>
       <c r="AG201" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="202" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B202">
         <v>0</v>
@@ -24104,12 +24103,12 @@
         <v>0</v>
       </c>
       <c r="AG202" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="203" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B203">
         <v>0</v>
@@ -24205,12 +24204,12 @@
         <v>0</v>
       </c>
       <c r="AG203" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="204" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B204">
         <v>0</v>
@@ -24306,12 +24305,12 @@
         <v>1</v>
       </c>
       <c r="AG204" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="205" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B205">
         <v>324</v>
@@ -24407,12 +24406,12 @@
         <v>0</v>
       </c>
       <c r="AG205" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="206" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B206">
         <v>561</v>
@@ -24508,12 +24507,12 @@
         <v>0</v>
       </c>
       <c r="AG206" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="207" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B207">
         <v>303</v>
@@ -24609,12 +24608,12 @@
         <v>0</v>
       </c>
       <c r="AG207" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="208" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B208">
         <v>0</v>
@@ -24710,12 +24709,12 @@
         <v>0</v>
       </c>
       <c r="AG208" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="209" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B209">
         <v>0</v>
@@ -24811,12 +24810,12 @@
         <v>0</v>
       </c>
       <c r="AG209" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="210" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B210">
         <v>448</v>
@@ -24912,12 +24911,12 @@
         <v>0</v>
       </c>
       <c r="AG210" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="211" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B211">
         <v>130</v>
@@ -25013,12 +25012,12 @@
         <v>0</v>
       </c>
       <c r="AG211" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="212" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B212">
         <v>207</v>
@@ -25114,12 +25113,12 @@
         <v>0</v>
       </c>
       <c r="AG212" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="213" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B213">
         <v>0</v>
@@ -25215,12 +25214,12 @@
         <v>0</v>
       </c>
       <c r="AG213" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="214" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B214">
         <v>0</v>
@@ -25316,12 +25315,12 @@
         <v>0</v>
       </c>
       <c r="AG214" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="215" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B215">
         <v>0</v>
@@ -25417,12 +25416,12 @@
         <v>0</v>
       </c>
       <c r="AG215" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="216" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B216">
         <v>205</v>
@@ -25518,12 +25517,12 @@
         <v>0</v>
       </c>
       <c r="AG216" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="217" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B217">
         <v>0</v>
@@ -25619,12 +25618,12 @@
         <v>0</v>
       </c>
       <c r="AG217" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="218" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B218">
         <v>0</v>
@@ -25720,12 +25719,12 @@
         <v>0</v>
       </c>
       <c r="AG218" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="219" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B219">
         <v>203</v>
@@ -25821,12 +25820,12 @@
         <v>0</v>
       </c>
       <c r="AG219" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="220" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B220">
         <v>0</v>
@@ -25922,12 +25921,12 @@
         <v>0</v>
       </c>
       <c r="AG220" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="221" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B221">
         <v>0</v>
@@ -26023,12 +26022,12 @@
         <v>0</v>
       </c>
       <c r="AG221" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="222" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -26124,12 +26123,12 @@
         <v>1</v>
       </c>
       <c r="AG222" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="223" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B223">
         <v>354</v>
@@ -26225,12 +26224,12 @@
         <v>0</v>
       </c>
       <c r="AG223" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="224" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B224">
         <v>346</v>
@@ -26326,12 +26325,12 @@
         <v>0</v>
       </c>
       <c r="AG224" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="225" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B225">
         <v>175</v>
@@ -26427,12 +26426,12 @@
         <v>0</v>
       </c>
       <c r="AG225" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="226" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B226">
         <v>168</v>
@@ -26528,12 +26527,12 @@
         <v>0</v>
       </c>
       <c r="AG226" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="227" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B227">
         <v>139</v>
@@ -26629,12 +26628,12 @@
         <v>1</v>
       </c>
       <c r="AG227" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="228" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B228">
         <v>0</v>
@@ -26730,12 +26729,12 @@
         <v>0</v>
       </c>
       <c r="AG228" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="229" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B229">
         <v>0</v>
@@ -26831,12 +26830,12 @@
         <v>0</v>
       </c>
       <c r="AG229" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="230" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B230">
         <v>122</v>
@@ -26932,12 +26931,12 @@
         <v>0</v>
       </c>
       <c r="AG230" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="231" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B231">
         <v>0</v>
@@ -27033,12 +27032,12 @@
         <v>0</v>
       </c>
       <c r="AG231" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="232" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B232">
         <v>0</v>
@@ -27134,12 +27133,12 @@
         <v>0</v>
       </c>
       <c r="AG232" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="233" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B233">
         <v>0</v>
@@ -27235,12 +27234,12 @@
         <v>0</v>
       </c>
       <c r="AG233" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="234" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B234">
         <v>0</v>
@@ -27336,12 +27335,12 @@
         <v>0</v>
       </c>
       <c r="AG234" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="235" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B235">
         <v>0</v>
@@ -27437,12 +27436,12 @@
         <v>0</v>
       </c>
       <c r="AG235" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="236" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B236">
         <v>0</v>
@@ -27538,12 +27537,12 @@
         <v>0</v>
       </c>
       <c r="AG236" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="237" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B237">
         <v>212</v>
@@ -27639,12 +27638,12 @@
         <v>0</v>
       </c>
       <c r="AG237" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="238" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B238">
         <v>0</v>
@@ -27740,12 +27739,12 @@
         <v>0</v>
       </c>
       <c r="AG238" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="239" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B239">
         <v>0</v>
@@ -27841,12 +27840,12 @@
         <v>0</v>
       </c>
       <c r="AG239" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="240" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B240">
         <v>0</v>
@@ -27942,12 +27941,12 @@
         <v>0</v>
       </c>
       <c r="AG240" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="241" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B241">
         <v>0</v>
@@ -28043,12 +28042,12 @@
         <v>0</v>
       </c>
       <c r="AG241" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="242" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B242">
         <v>204</v>
@@ -28144,12 +28143,12 @@
         <v>0</v>
       </c>
       <c r="AG242" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="243" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B243">
         <v>125</v>
@@ -28245,12 +28244,12 @@
         <v>0</v>
       </c>
       <c r="AG243" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="244" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B244">
         <v>0</v>
@@ -28346,12 +28345,12 @@
         <v>0</v>
       </c>
       <c r="AG244" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="245" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B245">
         <v>0</v>
@@ -28447,12 +28446,12 @@
         <v>0</v>
       </c>
       <c r="AG245" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="246" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B246">
         <v>0</v>
@@ -28548,12 +28547,12 @@
         <v>0</v>
       </c>
       <c r="AG246" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="247" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B247">
         <v>0</v>
@@ -28649,12 +28648,12 @@
         <v>0</v>
       </c>
       <c r="AG247" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="248" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B248">
         <v>126</v>
@@ -28750,12 +28749,12 @@
         <v>0</v>
       </c>
       <c r="AG248" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="249" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B249">
         <v>134</v>
@@ -28851,12 +28850,12 @@
         <v>0</v>
       </c>
       <c r="AG249" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="250" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B250">
         <v>0</v>
@@ -28952,12 +28951,12 @@
         <v>0</v>
       </c>
       <c r="AG250" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="251" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B251">
         <v>0</v>
@@ -29053,12 +29052,12 @@
         <v>0</v>
       </c>
       <c r="AG251" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="252" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B252">
         <v>0</v>
@@ -29154,12 +29153,12 @@
         <v>0</v>
       </c>
       <c r="AG252" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="253" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B253">
         <v>82</v>
@@ -29255,12 +29254,12 @@
         <v>0</v>
       </c>
       <c r="AG253" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="254" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B254">
         <v>0</v>
@@ -29356,12 +29355,12 @@
         <v>0</v>
       </c>
       <c r="AG254" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="255" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B255">
         <v>0</v>
@@ -29457,12 +29456,12 @@
         <v>0</v>
       </c>
       <c r="AG255" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="256" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B256">
         <v>0</v>
@@ -29558,12 +29557,12 @@
         <v>0</v>
       </c>
       <c r="AG256" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="257" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B257">
         <v>157</v>
@@ -29659,12 +29658,12 @@
         <v>0</v>
       </c>
       <c r="AG257" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="258" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B258">
         <v>136</v>
@@ -29760,12 +29759,12 @@
         <v>0</v>
       </c>
       <c r="AG258" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="259" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B259">
         <v>182</v>
@@ -29861,12 +29860,12 @@
         <v>0</v>
       </c>
       <c r="AG259" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="260" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B260">
         <v>0</v>
@@ -29962,12 +29961,12 @@
         <v>0</v>
       </c>
       <c r="AG260" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="261" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B261">
         <v>0</v>
@@ -30063,12 +30062,12 @@
         <v>0</v>
       </c>
       <c r="AG261" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="262" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B262">
         <v>203</v>
@@ -30164,12 +30163,12 @@
         <v>0</v>
       </c>
       <c r="AG262" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="263" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B263">
         <v>251</v>
@@ -30265,12 +30264,12 @@
         <v>0</v>
       </c>
       <c r="AG263" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="264" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B264">
         <v>0</v>
@@ -30366,12 +30365,12 @@
         <v>0</v>
       </c>
       <c r="AG264" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="265" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B265">
         <v>0</v>
@@ -30467,12 +30466,12 @@
         <v>0</v>
       </c>
       <c r="AG265" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="266" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B266">
         <v>0</v>
@@ -30568,12 +30567,12 @@
         <v>0</v>
       </c>
       <c r="AG266" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="267" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B267">
         <v>0</v>
@@ -30669,12 +30668,12 @@
         <v>0</v>
       </c>
       <c r="AG267" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="268" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B268">
         <v>893</v>
@@ -30770,12 +30769,12 @@
         <v>0</v>
       </c>
       <c r="AG268" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="269" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B269">
         <v>0</v>
@@ -30871,12 +30870,12 @@
         <v>0</v>
       </c>
       <c r="AG269" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="270" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B270">
         <v>0</v>
@@ -30972,12 +30971,12 @@
         <v>0</v>
       </c>
       <c r="AG270" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="271" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B271">
         <v>863</v>
@@ -31073,12 +31072,12 @@
         <v>0</v>
       </c>
       <c r="AG271" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="272" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B272">
         <v>0</v>
@@ -31174,12 +31173,12 @@
         <v>0</v>
       </c>
       <c r="AG272" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="273" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B273">
         <v>0</v>
@@ -31275,12 +31274,12 @@
         <v>0</v>
       </c>
       <c r="AG273" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="274" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B274">
         <v>0</v>
@@ -31376,12 +31375,12 @@
         <v>0</v>
       </c>
       <c r="AG274" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="275" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B275">
         <v>0</v>
@@ -31477,12 +31476,12 @@
         <v>0</v>
       </c>
       <c r="AG275" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="276" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B276">
         <v>0</v>
@@ -31578,12 +31577,12 @@
         <v>0</v>
       </c>
       <c r="AG276" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="277" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B277">
         <v>0</v>
@@ -31679,12 +31678,12 @@
         <v>0</v>
       </c>
       <c r="AG277" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="278" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B278">
         <v>0</v>
@@ -31780,12 +31779,12 @@
         <v>0</v>
       </c>
       <c r="AG278" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="279" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B279">
         <v>67</v>
@@ -31881,12 +31880,12 @@
         <v>0</v>
       </c>
       <c r="AG279" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="280" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B280">
         <v>0</v>
@@ -31982,12 +31981,12 @@
         <v>0</v>
       </c>
       <c r="AG280" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="281" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B281">
         <v>0</v>
@@ -32083,12 +32082,12 @@
         <v>0</v>
       </c>
       <c r="AG281" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="282" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B282">
         <v>0</v>
@@ -32184,12 +32183,12 @@
         <v>0</v>
       </c>
       <c r="AG282" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="283" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B283">
         <v>86</v>
@@ -32285,12 +32284,12 @@
         <v>0</v>
       </c>
       <c r="AG283" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="284" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B284">
         <v>102</v>
@@ -32386,12 +32385,12 @@
         <v>0</v>
       </c>
       <c r="AG284" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="285" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B285">
         <v>277</v>
@@ -32487,12 +32486,12 @@
         <v>0</v>
       </c>
       <c r="AG285" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="286" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B286">
         <v>0</v>
@@ -32588,12 +32587,12 @@
         <v>0</v>
       </c>
       <c r="AG286" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="287" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B287">
         <v>247</v>
@@ -32689,12 +32688,12 @@
         <v>0</v>
       </c>
       <c r="AG287" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="288" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B288">
         <v>0</v>
@@ -32790,12 +32789,12 @@
         <v>0</v>
       </c>
       <c r="AG288" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="289" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B289">
         <v>0</v>
@@ -32891,12 +32890,12 @@
         <v>0</v>
       </c>
       <c r="AG289" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="290" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B290">
         <v>0</v>
@@ -32992,12 +32991,12 @@
         <v>0</v>
       </c>
       <c r="AG290" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="291" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B291">
         <v>0</v>
@@ -33093,12 +33092,12 @@
         <v>0</v>
       </c>
       <c r="AG291" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="292" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A292" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B292">
         <v>153</v>
@@ -33194,12 +33193,12 @@
         <v>0</v>
       </c>
       <c r="AG292" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="293" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A293" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B293">
         <v>0</v>
@@ -33295,12 +33294,12 @@
         <v>0</v>
       </c>
       <c r="AG293" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="294" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A294" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B294">
         <v>0</v>
@@ -33396,12 +33395,12 @@
         <v>0</v>
       </c>
       <c r="AG294" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="295" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A295" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B295">
         <v>0</v>
@@ -33497,12 +33496,12 @@
         <v>0</v>
       </c>
       <c r="AG295" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="296" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A296" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B296">
         <v>0</v>
@@ -33598,12 +33597,12 @@
         <v>0</v>
       </c>
       <c r="AG296" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="297" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A297" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B297">
         <v>94</v>
@@ -33699,12 +33698,12 @@
         <v>0</v>
       </c>
       <c r="AG297" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="298" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B298">
         <v>0</v>
@@ -33800,12 +33799,12 @@
         <v>0</v>
       </c>
       <c r="AG298" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="299" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A299" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B299">
         <v>0</v>
@@ -33901,12 +33900,12 @@
         <v>0</v>
       </c>
       <c r="AG299" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="300" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A300" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B300">
         <v>0</v>
@@ -34002,12 +34001,12 @@
         <v>0</v>
       </c>
       <c r="AG300" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="301" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A301" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B301">
         <v>0</v>
@@ -34103,12 +34102,12 @@
         <v>0</v>
       </c>
       <c r="AG301" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="302" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A302" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B302">
         <v>0</v>
@@ -34204,12 +34203,12 @@
         <v>0</v>
       </c>
       <c r="AG302" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="303" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B303">
         <v>0</v>
@@ -34305,12 +34304,12 @@
         <v>0</v>
       </c>
       <c r="AG303" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="304" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B304">
         <v>137</v>
@@ -34406,12 +34405,12 @@
         <v>0</v>
       </c>
       <c r="AG304" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="305" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B305">
         <v>0</v>
@@ -34507,12 +34506,12 @@
         <v>0</v>
       </c>
       <c r="AG305" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="306" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A306" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B306">
         <v>0</v>
@@ -34608,12 +34607,12 @@
         <v>0</v>
       </c>
       <c r="AG306" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="307" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A307" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B307">
         <v>0</v>
@@ -34709,12 +34708,12 @@
         <v>0</v>
       </c>
       <c r="AG307" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="308" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A308" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B308">
         <v>0</v>
@@ -34810,12 +34809,12 @@
         <v>0</v>
       </c>
       <c r="AG308" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="309" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A309" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B309">
         <v>113</v>
@@ -34911,12 +34910,12 @@
         <v>0</v>
       </c>
       <c r="AG309" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="310" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A310" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B310">
         <v>95</v>
@@ -35012,12 +35011,12 @@
         <v>0</v>
       </c>
       <c r="AG310" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="311" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A311" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B311">
         <v>0</v>
@@ -35113,12 +35112,12 @@
         <v>0</v>
       </c>
       <c r="AG311" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="312" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A312" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B312">
         <v>60</v>
@@ -35214,12 +35213,12 @@
         <v>0</v>
       </c>
       <c r="AG312" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="313" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A313" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B313">
         <v>0</v>
@@ -35315,12 +35314,12 @@
         <v>0</v>
       </c>
       <c r="AG313" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="314" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A314" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B314">
         <v>59</v>
@@ -35416,12 +35415,12 @@
         <v>0</v>
       </c>
       <c r="AG314" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="315" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A315" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B315">
         <v>130</v>
@@ -35517,12 +35516,12 @@
         <v>1</v>
       </c>
       <c r="AG315" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="316" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A316" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B316">
         <v>0</v>
@@ -35618,12 +35617,12 @@
         <v>0</v>
       </c>
       <c r="AG316" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="317" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A317" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B317">
         <v>77</v>
@@ -35719,12 +35718,12 @@
         <v>0</v>
       </c>
       <c r="AG317" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="318" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A318" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B318">
         <v>0</v>
@@ -35820,12 +35819,12 @@
         <v>0</v>
       </c>
       <c r="AG318" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="319" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A319" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B319">
         <v>0</v>
@@ -35921,12 +35920,12 @@
         <v>0</v>
       </c>
       <c r="AG319" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="320" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A320" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B320">
         <v>99</v>
@@ -36022,12 +36021,12 @@
         <v>0</v>
       </c>
       <c r="AG320" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="321" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A321" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B321">
         <v>0</v>
@@ -36123,12 +36122,12 @@
         <v>0</v>
       </c>
       <c r="AG321" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="322" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A322" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B322">
         <v>0</v>
@@ -36224,12 +36223,12 @@
         <v>0</v>
       </c>
       <c r="AG322" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="323" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A323" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B323">
         <v>0</v>
@@ -36325,12 +36324,12 @@
         <v>0</v>
       </c>
       <c r="AG323" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="324" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A324" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B324">
         <v>0</v>
@@ -36426,12 +36425,12 @@
         <v>0</v>
       </c>
       <c r="AG324" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="325" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A325" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B325">
         <v>0</v>
@@ -36527,12 +36526,12 @@
         <v>0</v>
       </c>
       <c r="AG325" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="326" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A326" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B326">
         <v>0</v>
@@ -36628,12 +36627,12 @@
         <v>0</v>
       </c>
       <c r="AG326" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="327" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A327" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B327">
         <v>0</v>
@@ -36729,12 +36728,12 @@
         <v>0</v>
       </c>
       <c r="AG327" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="328" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A328" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B328">
         <v>0</v>
@@ -36830,12 +36829,12 @@
         <v>0</v>
       </c>
       <c r="AG328" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="329" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A329" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B329">
         <v>62</v>
@@ -36931,12 +36930,12 @@
         <v>0</v>
       </c>
       <c r="AG329" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="330" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A330" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B330">
         <v>0</v>
@@ -37032,12 +37031,12 @@
         <v>0</v>
       </c>
       <c r="AG330" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="331" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A331" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B331">
         <v>0</v>
@@ -37133,12 +37132,12 @@
         <v>0</v>
       </c>
       <c r="AG331" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="332" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A332" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B332">
         <v>0</v>
@@ -37234,12 +37233,12 @@
         <v>0</v>
       </c>
       <c r="AG332" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="333" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A333" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B333">
         <v>66</v>
@@ -37335,12 +37334,12 @@
         <v>0</v>
       </c>
       <c r="AG333" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="334" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A334" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B334">
         <v>74</v>
@@ -37436,12 +37435,12 @@
         <v>0</v>
       </c>
       <c r="AG334" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="335" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A335" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B335">
         <v>195</v>
@@ -37537,12 +37536,12 @@
         <v>0</v>
       </c>
       <c r="AG335" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="336" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A336" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B336">
         <v>0</v>
@@ -37638,12 +37637,12 @@
         <v>0</v>
       </c>
       <c r="AG336" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="337" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A337" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B337">
         <v>0</v>
@@ -37739,12 +37738,12 @@
         <v>0</v>
       </c>
       <c r="AG337" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="338" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A338" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B338">
         <v>124</v>
@@ -37840,12 +37839,12 @@
         <v>0</v>
       </c>
       <c r="AG338" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="339" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A339" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B339">
         <v>0</v>
@@ -37941,12 +37940,12 @@
         <v>0</v>
       </c>
       <c r="AG339" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="340" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A340" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B340">
         <v>58</v>
@@ -38042,12 +38041,12 @@
         <v>0</v>
       </c>
       <c r="AG340" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="341" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A341" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B341">
         <v>0</v>
@@ -38143,12 +38142,12 @@
         <v>0</v>
       </c>
       <c r="AG341" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="342" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A342" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B342">
         <v>0</v>
@@ -38244,12 +38243,12 @@
         <v>0</v>
       </c>
       <c r="AG342" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="343" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A343" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B343">
         <v>0</v>
@@ -38345,12 +38344,12 @@
         <v>0</v>
       </c>
       <c r="AG343" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="344" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A344" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B344">
         <v>0</v>
@@ -38446,12 +38445,12 @@
         <v>0</v>
       </c>
       <c r="AG344" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="345" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A345" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B345">
         <v>0</v>
@@ -38547,12 +38546,12 @@
         <v>0</v>
       </c>
       <c r="AG345" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="346" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A346" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B346">
         <v>0</v>
@@ -38648,12 +38647,12 @@
         <v>0</v>
       </c>
       <c r="AG346" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="347" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A347" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B347">
         <v>0</v>
@@ -38749,12 +38748,12 @@
         <v>0</v>
       </c>
       <c r="AG347" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="348" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A348" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B348">
         <v>0</v>
@@ -38850,12 +38849,12 @@
         <v>0</v>
       </c>
       <c r="AG348" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="349" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A349" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B349">
         <v>0</v>
@@ -38951,12 +38950,12 @@
         <v>0</v>
       </c>
       <c r="AG349" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="350" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A350" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B350">
         <v>0</v>
@@ -39052,12 +39051,12 @@
         <v>0</v>
       </c>
       <c r="AG350" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="351" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A351" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B351">
         <v>0</v>
@@ -39153,12 +39152,12 @@
         <v>0</v>
       </c>
       <c r="AG351" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="352" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A352" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B352">
         <v>0</v>
@@ -39254,12 +39253,12 @@
         <v>0</v>
       </c>
       <c r="AG352" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="353" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A353" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B353">
         <v>0</v>
@@ -39355,12 +39354,12 @@
         <v>0</v>
       </c>
       <c r="AG353" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="354" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A354" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B354">
         <v>0</v>
@@ -39456,12 +39455,12 @@
         <v>0</v>
       </c>
       <c r="AG354" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="355" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A355" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B355">
         <v>0</v>
@@ -39557,12 +39556,12 @@
         <v>0</v>
       </c>
       <c r="AG355" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="356" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A356" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B356">
         <v>0</v>
@@ -39658,12 +39657,12 @@
         <v>0</v>
       </c>
       <c r="AG356" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="357" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A357" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B357">
         <v>0</v>
@@ -39759,12 +39758,12 @@
         <v>0</v>
       </c>
       <c r="AG357" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="358" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A358" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B358">
         <v>0</v>
@@ -39860,12 +39859,12 @@
         <v>0</v>
       </c>
       <c r="AG358" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="359" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A359" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B359">
         <v>119</v>
@@ -39961,12 +39960,12 @@
         <v>0</v>
       </c>
       <c r="AG359" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="360" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A360" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B360">
         <v>0</v>
@@ -40062,12 +40061,12 @@
         <v>0</v>
       </c>
       <c r="AG360" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="361" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A361" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B361">
         <v>0</v>
@@ -40163,12 +40162,12 @@
         <v>0</v>
       </c>
       <c r="AG361" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="362" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A362" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B362">
         <v>0</v>
@@ -40264,12 +40263,12 @@
         <v>0</v>
       </c>
       <c r="AG362" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="363" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A363" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B363">
         <v>0</v>
@@ -40365,12 +40364,12 @@
         <v>0</v>
       </c>
       <c r="AG363" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="364" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A364" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B364">
         <v>0</v>
@@ -40466,12 +40465,12 @@
         <v>0</v>
       </c>
       <c r="AG364" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="365" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A365" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B365">
         <v>0</v>
@@ -40567,12 +40566,12 @@
         <v>0</v>
       </c>
       <c r="AG365" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="366" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A366" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B366">
         <v>0</v>
@@ -40668,12 +40667,12 @@
         <v>0</v>
       </c>
       <c r="AG366" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="367" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A367" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B367">
         <v>0</v>
@@ -40769,12 +40768,12 @@
         <v>0</v>
       </c>
       <c r="AG367" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="368" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A368" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B368">
         <v>3939</v>
@@ -40870,12 +40869,12 @@
         <v>0</v>
       </c>
       <c r="AG368" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="369" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A369" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B369">
         <v>0</v>
@@ -40971,12 +40970,12 @@
         <v>0</v>
       </c>
       <c r="AG369" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="370" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A370" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B370">
         <v>0</v>
@@ -41072,12 +41071,12 @@
         <v>0</v>
       </c>
       <c r="AG370" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="371" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A371" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B371">
         <v>0</v>
@@ -41173,12 +41172,12 @@
         <v>0</v>
       </c>
       <c r="AG371" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="372" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A372" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B372">
         <v>0</v>
@@ -41274,12 +41273,12 @@
         <v>0</v>
       </c>
       <c r="AG372" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="373" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A373" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B373">
         <v>0</v>
@@ -41375,12 +41374,12 @@
         <v>0</v>
       </c>
       <c r="AG373" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="374" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A374" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B374">
         <v>0</v>
@@ -41476,12 +41475,12 @@
         <v>0</v>
       </c>
       <c r="AG374" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="375" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A375" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B375">
         <v>0</v>
@@ -41577,12 +41576,12 @@
         <v>0</v>
       </c>
       <c r="AG375" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="376" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A376" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B376">
         <v>0</v>
@@ -41678,12 +41677,12 @@
         <v>0</v>
       </c>
       <c r="AG376" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="377" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A377" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B377">
         <v>0</v>
@@ -41779,12 +41778,12 @@
         <v>0</v>
       </c>
       <c r="AG377" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="378" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A378" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B378">
         <v>0</v>
@@ -41880,12 +41879,12 @@
         <v>0</v>
       </c>
       <c r="AG378" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="379" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A379" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B379">
         <v>0</v>
@@ -41981,12 +41980,12 @@
         <v>0</v>
       </c>
       <c r="AG379" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="380" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A380" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B380">
         <v>0</v>
@@ -42082,12 +42081,12 @@
         <v>0</v>
       </c>
       <c r="AG380" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="381" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A381" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B381">
         <v>0</v>
@@ -42183,12 +42182,12 @@
         <v>0</v>
       </c>
       <c r="AG381" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="382" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A382" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B382">
         <v>0</v>
@@ -42284,12 +42283,12 @@
         <v>0</v>
       </c>
       <c r="AG382" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="383" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A383" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B383">
         <v>0</v>
@@ -42385,12 +42384,12 @@
         <v>0</v>
       </c>
       <c r="AG383" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="384" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A384" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B384">
         <v>0</v>
@@ -42486,12 +42485,12 @@
         <v>0</v>
       </c>
       <c r="AG384" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="385" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A385" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B385">
         <v>0</v>
@@ -42587,12 +42586,12 @@
         <v>0</v>
       </c>
       <c r="AG385" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="386" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A386" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B386">
         <v>0</v>
@@ -42688,12 +42687,12 @@
         <v>0</v>
       </c>
       <c r="AG386" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="387" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A387" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B387">
         <v>0</v>
@@ -42789,12 +42788,12 @@
         <v>0</v>
       </c>
       <c r="AG387" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="388" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A388" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B388">
         <v>0</v>
@@ -42890,12 +42889,12 @@
         <v>0</v>
       </c>
       <c r="AG388" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="389" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A389" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B389">
         <v>0</v>
@@ -42991,12 +42990,12 @@
         <v>0</v>
       </c>
       <c r="AG389" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="390" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A390" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B390">
         <v>0</v>
@@ -43092,12 +43091,12 @@
         <v>0</v>
       </c>
       <c r="AG390" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="391" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A391" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B391">
         <v>182</v>
@@ -43193,12 +43192,12 @@
         <v>0</v>
       </c>
       <c r="AG391" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="392" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A392" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B392">
         <v>0</v>
@@ -43294,12 +43293,12 @@
         <v>0</v>
       </c>
       <c r="AG392" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="393" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A393" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B393">
         <v>0</v>
@@ -43395,12 +43394,12 @@
         <v>0</v>
       </c>
       <c r="AG393" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="394" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A394" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B394">
         <v>0</v>
@@ -43496,12 +43495,12 @@
         <v>0</v>
       </c>
       <c r="AG394" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="395" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A395" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B395">
         <v>0</v>
@@ -43597,12 +43596,12 @@
         <v>0</v>
       </c>
       <c r="AG395" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="396" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A396" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B396">
         <v>93</v>
@@ -43698,12 +43697,12 @@
         <v>0</v>
       </c>
       <c r="AG396" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="397" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A397" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B397">
         <v>0</v>
@@ -43799,12 +43798,12 @@
         <v>0</v>
       </c>
       <c r="AG397" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="398" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A398" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B398">
         <v>0</v>
@@ -43900,12 +43899,12 @@
         <v>0</v>
       </c>
       <c r="AG398" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="399" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A399" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B399">
         <v>0</v>
@@ -44001,12 +44000,12 @@
         <v>0</v>
       </c>
       <c r="AG399" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="400" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A400" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B400">
         <v>85</v>
@@ -44102,12 +44101,12 @@
         <v>0</v>
       </c>
       <c r="AG400" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="401" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A401" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B401">
         <v>0</v>
@@ -44203,12 +44202,12 @@
         <v>0</v>
       </c>
       <c r="AG401" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="402" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A402" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B402">
         <v>0</v>
@@ -44304,12 +44303,12 @@
         <v>0</v>
       </c>
       <c r="AG402" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="403" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A403" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B403">
         <v>0</v>
@@ -44405,12 +44404,12 @@
         <v>0</v>
       </c>
       <c r="AG403" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="404" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A404" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B404">
         <v>0</v>
@@ -44506,12 +44505,12 @@
         <v>0</v>
       </c>
       <c r="AG404" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="405" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A405" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B405">
         <v>0</v>
@@ -44607,12 +44606,12 @@
         <v>0</v>
       </c>
       <c r="AG405" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="406" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A406" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B406">
         <v>0</v>
@@ -44708,12 +44707,12 @@
         <v>0</v>
       </c>
       <c r="AG406" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="407" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A407" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B407">
         <v>0</v>
@@ -44809,12 +44808,12 @@
         <v>0</v>
       </c>
       <c r="AG407" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="408" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A408" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B408">
         <v>120</v>
@@ -44910,12 +44909,12 @@
         <v>0</v>
       </c>
       <c r="AG408" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="409" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A409" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B409">
         <v>0</v>
@@ -45011,12 +45010,12 @@
         <v>0</v>
       </c>
       <c r="AG409" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="410" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A410" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B410">
         <v>0</v>
@@ -45112,12 +45111,12 @@
         <v>0</v>
       </c>
       <c r="AG410" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="411" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A411" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B411">
         <v>0</v>
@@ -45213,12 +45212,12 @@
         <v>0</v>
       </c>
       <c r="AG411" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="412" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A412" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B412">
         <v>0</v>
@@ -45314,12 +45313,12 @@
         <v>0</v>
       </c>
       <c r="AG412" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="413" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A413" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B413">
         <v>0</v>
@@ -45415,12 +45414,12 @@
         <v>0</v>
       </c>
       <c r="AG413" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="414" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A414" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B414">
         <v>0</v>
@@ -45516,12 +45515,12 @@
         <v>0</v>
       </c>
       <c r="AG414" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="415" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A415" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B415">
         <v>1677</v>
@@ -45617,12 +45616,12 @@
         <v>0</v>
       </c>
       <c r="AG415" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="416" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A416" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B416">
         <v>0</v>
@@ -45718,12 +45717,12 @@
         <v>0</v>
       </c>
       <c r="AG416" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="417" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A417" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B417">
         <v>0</v>
@@ -45819,12 +45818,12 @@
         <v>0</v>
       </c>
       <c r="AG417" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="418" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A418" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B418">
         <v>0</v>
@@ -45920,12 +45919,12 @@
         <v>0</v>
       </c>
       <c r="AG418" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="419" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A419" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B419">
         <v>0</v>
@@ -46021,12 +46020,12 @@
         <v>0</v>
       </c>
       <c r="AG419" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="420" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A420" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B420">
         <v>0</v>
@@ -46122,12 +46121,12 @@
         <v>0</v>
       </c>
       <c r="AG420" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="421" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A421" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B421">
         <v>0</v>
@@ -46223,12 +46222,12 @@
         <v>0</v>
       </c>
       <c r="AG421" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="422" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A422" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B422">
         <v>0</v>
@@ -46324,12 +46323,12 @@
         <v>0</v>
       </c>
       <c r="AG422" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="423" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A423" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B423">
         <v>0</v>
@@ -46425,12 +46424,12 @@
         <v>0</v>
       </c>
       <c r="AG423" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="424" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A424" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B424">
         <v>0</v>
@@ -46526,12 +46525,12 @@
         <v>0</v>
       </c>
       <c r="AG424" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="425" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A425" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B425">
         <v>0</v>
@@ -46627,12 +46626,12 @@
         <v>0</v>
       </c>
       <c r="AG425" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="426" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A426" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B426">
         <v>0</v>
@@ -46728,12 +46727,12 @@
         <v>0</v>
       </c>
       <c r="AG426" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="427" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A427" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B427">
         <v>0</v>
@@ -46829,12 +46828,12 @@
         <v>0</v>
       </c>
       <c r="AG427" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="428" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A428" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B428">
         <v>0</v>
@@ -46930,12 +46929,12 @@
         <v>0</v>
       </c>
       <c r="AG428" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="429" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A429" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B429">
         <v>0</v>
@@ -47031,12 +47030,12 @@
         <v>0</v>
       </c>
       <c r="AG429" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="430" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A430" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B430">
         <v>0</v>
@@ -47132,12 +47131,12 @@
         <v>0</v>
       </c>
       <c r="AG430" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="431" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A431" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B431">
         <v>0</v>
@@ -47233,12 +47232,12 @@
         <v>0</v>
       </c>
       <c r="AG431" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="432" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A432" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B432">
         <v>84</v>
@@ -47334,12 +47333,12 @@
         <v>0</v>
       </c>
       <c r="AG432" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="433" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A433" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B433">
         <v>0</v>
@@ -47435,12 +47434,12 @@
         <v>0</v>
       </c>
       <c r="AG433" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="434" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A434" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B434">
         <v>0</v>
@@ -47536,12 +47535,12 @@
         <v>0</v>
       </c>
       <c r="AG434" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="435" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A435" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B435">
         <v>0</v>
@@ -47637,12 +47636,12 @@
         <v>0</v>
       </c>
       <c r="AG435" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="436" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A436" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B436">
         <v>0</v>
@@ -47738,12 +47737,12 @@
         <v>0</v>
       </c>
       <c r="AG436" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="437" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A437" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B437">
         <v>0</v>
@@ -47839,12 +47838,12 @@
         <v>0</v>
       </c>
       <c r="AG437" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="438" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A438" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B438">
         <v>80</v>
@@ -47940,12 +47939,12 @@
         <v>0</v>
       </c>
       <c r="AG438" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="439" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A439" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B439">
         <v>0</v>
@@ -48041,12 +48040,12 @@
         <v>0</v>
       </c>
       <c r="AG439" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="440" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A440" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B440">
         <v>0</v>
@@ -48142,12 +48141,12 @@
         <v>0</v>
       </c>
       <c r="AG440" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="441" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A441" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B441">
         <v>0</v>
@@ -48243,12 +48242,12 @@
         <v>0</v>
       </c>
       <c r="AG441" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="442" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A442" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B442">
         <v>0</v>
@@ -48344,12 +48343,12 @@
         <v>0</v>
       </c>
       <c r="AG442" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="443" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A443" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B443">
         <v>0</v>
@@ -48445,12 +48444,12 @@
         <v>0</v>
       </c>
       <c r="AG443" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="444" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A444" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B444">
         <v>0</v>
@@ -48546,12 +48545,12 @@
         <v>0</v>
       </c>
       <c r="AG444" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="445" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A445" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B445">
         <v>0</v>
@@ -48647,12 +48646,12 @@
         <v>0</v>
       </c>
       <c r="AG445" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="446" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A446" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B446">
         <v>0</v>
@@ -48748,12 +48747,12 @@
         <v>0</v>
       </c>
       <c r="AG446" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="447" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A447" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B447">
         <v>0</v>
@@ -48849,12 +48848,12 @@
         <v>0</v>
       </c>
       <c r="AG447" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="448" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A448" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B448">
         <v>0</v>
@@ -48950,12 +48949,12 @@
         <v>0</v>
       </c>
       <c r="AG448" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="449" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A449" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B449">
         <v>0</v>
@@ -49051,12 +49050,12 @@
         <v>0</v>
       </c>
       <c r="AG449" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="450" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A450" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B450">
         <v>0</v>
@@ -49152,12 +49151,12 @@
         <v>0</v>
       </c>
       <c r="AG450" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="451" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A451" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B451">
         <v>0</v>
@@ -49253,12 +49252,12 @@
         <v>0</v>
       </c>
       <c r="AG451" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="452" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A452" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B452">
         <v>0</v>
@@ -49354,12 +49353,12 @@
         <v>0</v>
       </c>
       <c r="AG452" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="453" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A453" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B453">
         <v>0</v>
@@ -49455,12 +49454,12 @@
         <v>0</v>
       </c>
       <c r="AG453" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="454" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A454" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B454">
         <v>0</v>
@@ -49556,12 +49555,12 @@
         <v>0</v>
       </c>
       <c r="AG454" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="455" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A455" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B455">
         <v>0</v>
@@ -49657,12 +49656,12 @@
         <v>0</v>
       </c>
       <c r="AG455" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="456" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A456" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B456">
         <v>0</v>
@@ -49758,12 +49757,12 @@
         <v>0</v>
       </c>
       <c r="AG456" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="457" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A457" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B457">
         <v>0</v>
@@ -49859,12 +49858,12 @@
         <v>0</v>
       </c>
       <c r="AG457" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="458" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A458" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B458">
         <v>0</v>
@@ -49960,12 +49959,12 @@
         <v>0</v>
       </c>
       <c r="AG458" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="459" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A459" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B459">
         <v>0</v>
@@ -50061,12 +50060,12 @@
         <v>0</v>
       </c>
       <c r="AG459" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="460" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A460" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B460">
         <v>0</v>
@@ -50162,12 +50161,12 @@
         <v>0</v>
       </c>
       <c r="AG460" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="461" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A461" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B461">
         <v>0</v>
@@ -50263,12 +50262,12 @@
         <v>0</v>
       </c>
       <c r="AG461" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="462" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A462" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B462">
         <v>0</v>
@@ -50364,12 +50363,12 @@
         <v>0</v>
       </c>
       <c r="AG462" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="463" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A463" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B463">
         <v>0</v>
@@ -50465,12 +50464,12 @@
         <v>0</v>
       </c>
       <c r="AG463" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="464" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A464" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B464">
         <v>0</v>
@@ -50566,12 +50565,12 @@
         <v>0</v>
       </c>
       <c r="AG464" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="465" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A465" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B465">
         <v>0</v>
@@ -50667,12 +50666,12 @@
         <v>0</v>
       </c>
       <c r="AG465" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="466" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A466" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B466">
         <v>0</v>
@@ -50768,12 +50767,12 @@
         <v>0</v>
       </c>
       <c r="AG466" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="467" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A467" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B467">
         <v>0</v>
@@ -50869,12 +50868,12 @@
         <v>0</v>
       </c>
       <c r="AG467" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="468" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A468" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B468">
         <v>0</v>
@@ -50970,12 +50969,12 @@
         <v>0</v>
       </c>
       <c r="AG468" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="469" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A469" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B469">
         <v>0</v>
@@ -51071,12 +51070,12 @@
         <v>0</v>
       </c>
       <c r="AG469" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="470" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A470" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B470">
         <v>0</v>
@@ -51172,12 +51171,12 @@
         <v>0</v>
       </c>
       <c r="AG470" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="471" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A471" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B471">
         <v>0</v>
@@ -51273,12 +51272,12 @@
         <v>0</v>
       </c>
       <c r="AG471" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="472" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A472" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B472">
         <v>0</v>
@@ -51374,12 +51373,12 @@
         <v>0</v>
       </c>
       <c r="AG472" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="473" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A473" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B473">
         <v>0</v>
@@ -51475,12 +51474,12 @@
         <v>0</v>
       </c>
       <c r="AG473" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="474" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A474" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B474">
         <v>0</v>
@@ -51576,12 +51575,12 @@
         <v>0</v>
       </c>
       <c r="AG474" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="475" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A475" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B475">
         <v>0</v>
@@ -51677,12 +51676,12 @@
         <v>0</v>
       </c>
       <c r="AG475" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="476" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A476" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B476">
         <v>0</v>
@@ -51778,12 +51777,12 @@
         <v>0</v>
       </c>
       <c r="AG476" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="477" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A477" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B477">
         <v>0</v>
@@ -51879,12 +51878,12 @@
         <v>0</v>
       </c>
       <c r="AG477" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="478" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A478" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B478">
         <v>0</v>
@@ -51980,12 +51979,12 @@
         <v>0</v>
       </c>
       <c r="AG478" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="479" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A479" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B479">
         <v>0</v>
@@ -52081,12 +52080,12 @@
         <v>0</v>
       </c>
       <c r="AG479" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="480" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A480" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B480">
         <v>0</v>
@@ -52182,12 +52181,12 @@
         <v>0</v>
       </c>
       <c r="AG480" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="481" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A481" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B481">
         <v>0</v>
@@ -52283,12 +52282,12 @@
         <v>0</v>
       </c>
       <c r="AG481" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="482" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A482" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B482">
         <v>96</v>
@@ -52384,12 +52383,12 @@
         <v>0</v>
       </c>
       <c r="AG482" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="483" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A483" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B483">
         <v>0</v>
@@ -52485,12 +52484,12 @@
         <v>0</v>
       </c>
       <c r="AG483" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="484" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A484" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B484">
         <v>0</v>
@@ -52586,12 +52585,12 @@
         <v>0</v>
       </c>
       <c r="AG484" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="485" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A485" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B485">
         <v>0</v>
@@ -52687,12 +52686,12 @@
         <v>0</v>
       </c>
       <c r="AG485" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="486" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A486" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B486">
         <v>0</v>
@@ -52788,12 +52787,12 @@
         <v>0</v>
       </c>
       <c r="AG486" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="487" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A487" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B487">
         <v>0</v>
@@ -52889,12 +52888,12 @@
         <v>0</v>
       </c>
       <c r="AG487" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="488" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A488" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B488">
         <v>0</v>
@@ -52990,12 +52989,12 @@
         <v>0</v>
       </c>
       <c r="AG488" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="489" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A489" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B489">
         <v>0</v>
@@ -53091,12 +53090,12 @@
         <v>0</v>
       </c>
       <c r="AG489" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="490" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A490" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B490">
         <v>0</v>
@@ -53192,12 +53191,12 @@
         <v>0</v>
       </c>
       <c r="AG490" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="491" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A491" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B491">
         <v>0</v>
@@ -53293,12 +53292,12 @@
         <v>0</v>
       </c>
       <c r="AG491" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="492" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A492" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B492">
         <v>0</v>
@@ -53394,12 +53393,12 @@
         <v>0</v>
       </c>
       <c r="AG492" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="493" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A493" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B493">
         <v>0</v>
@@ -53495,12 +53494,12 @@
         <v>0</v>
       </c>
       <c r="AG493" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="494" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A494" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B494">
         <v>86</v>
@@ -53596,12 +53595,12 @@
         <v>0</v>
       </c>
       <c r="AG494" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="495" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A495" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B495">
         <v>0</v>
@@ -53697,12 +53696,12 @@
         <v>0</v>
       </c>
       <c r="AG495" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="496" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A496" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B496">
         <v>0</v>
@@ -53798,12 +53797,12 @@
         <v>0</v>
       </c>
       <c r="AG496" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="497" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A497" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B497">
         <v>0</v>
@@ -53899,12 +53898,12 @@
         <v>0</v>
       </c>
       <c r="AG497" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="498" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A498" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B498">
         <v>0</v>
@@ -54000,12 +53999,12 @@
         <v>0</v>
       </c>
       <c r="AG498" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="499" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A499" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B499">
         <v>0</v>
@@ -54101,12 +54100,12 @@
         <v>0</v>
       </c>
       <c r="AG499" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="500" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A500" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B500">
         <v>0</v>
@@ -54202,12 +54201,12 @@
         <v>0</v>
       </c>
       <c r="AG500" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="501" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A501" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B501">
         <v>0</v>
@@ -54303,12 +54302,12 @@
         <v>0</v>
       </c>
       <c r="AG501" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="502" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A502" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B502">
         <v>0</v>
@@ -54404,12 +54403,12 @@
         <v>0</v>
       </c>
       <c r="AG502" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="503" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A503" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B503">
         <v>0</v>
@@ -54505,12 +54504,12 @@
         <v>0</v>
       </c>
       <c r="AG503" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="504" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A504" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B504">
         <v>0</v>
@@ -54606,12 +54605,12 @@
         <v>0</v>
       </c>
       <c r="AG504" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="505" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A505" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B505">
         <v>0</v>
@@ -54707,12 +54706,12 @@
         <v>0</v>
       </c>
       <c r="AG505" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="506" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A506" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B506">
         <v>0</v>
@@ -54808,12 +54807,12 @@
         <v>0</v>
       </c>
       <c r="AG506" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="507" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A507" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B507">
         <v>0</v>
@@ -54909,12 +54908,12 @@
         <v>0</v>
       </c>
       <c r="AG507" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="508" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A508" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B508">
         <v>0</v>
@@ -55010,12 +55009,12 @@
         <v>0</v>
       </c>
       <c r="AG508" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="509" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A509" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B509">
         <v>0</v>
@@ -55111,12 +55110,12 @@
         <v>0</v>
       </c>
       <c r="AG509" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="510" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A510" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B510">
         <v>150</v>
@@ -55212,12 +55211,12 @@
         <v>0</v>
       </c>
       <c r="AG510" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="511" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A511" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B511">
         <v>0</v>
@@ -55313,12 +55312,12 @@
         <v>0</v>
       </c>
       <c r="AG511" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="512" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A512" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B512">
         <v>0</v>
@@ -55414,12 +55413,12 @@
         <v>0</v>
       </c>
       <c r="AG512" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="513" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A513" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B513">
         <v>0</v>
@@ -55515,12 +55514,12 @@
         <v>0</v>
       </c>
       <c r="AG513" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="514" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A514" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B514">
         <v>0</v>
@@ -55616,12 +55615,12 @@
         <v>0</v>
       </c>
       <c r="AG514" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="515" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A515" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B515">
         <v>0</v>
@@ -55717,12 +55716,12 @@
         <v>0</v>
       </c>
       <c r="AG515" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="516" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A516" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B516">
         <v>0</v>
@@ -55818,12 +55817,12 @@
         <v>0</v>
       </c>
       <c r="AG516" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="517" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A517" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B517">
         <v>59</v>
@@ -55919,12 +55918,12 @@
         <v>0</v>
       </c>
       <c r="AG517" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="518" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A518" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B518">
         <v>0</v>
@@ -56020,12 +56019,12 @@
         <v>0</v>
       </c>
       <c r="AG518" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="519" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A519" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B519">
         <v>68</v>
@@ -56121,12 +56120,12 @@
         <v>0</v>
       </c>
       <c r="AG519" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="520" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A520" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B520">
         <v>0</v>
@@ -56222,12 +56221,12 @@
         <v>0</v>
       </c>
       <c r="AG520" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="521" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A521" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B521">
         <v>0</v>
@@ -56323,12 +56322,12 @@
         <v>0</v>
       </c>
       <c r="AG521" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="522" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A522" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B522">
         <v>775</v>
@@ -56424,12 +56423,12 @@
         <v>0</v>
       </c>
       <c r="AG522" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="523" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A523" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B523">
         <v>0</v>
@@ -56525,12 +56524,12 @@
         <v>0</v>
       </c>
       <c r="AG523" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="524" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A524" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B524">
         <v>0</v>
@@ -56626,12 +56625,12 @@
         <v>0</v>
       </c>
       <c r="AG524" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="525" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A525" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B525">
         <v>0</v>
@@ -56727,12 +56726,12 @@
         <v>0</v>
       </c>
       <c r="AG525" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="526" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A526" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B526">
         <v>0</v>
@@ -56828,12 +56827,12 @@
         <v>0</v>
       </c>
       <c r="AG526" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="527" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A527" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B527">
         <v>0</v>
@@ -56929,12 +56928,12 @@
         <v>0</v>
       </c>
       <c r="AG527" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="528" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A528" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B528">
         <v>0</v>
@@ -57030,12 +57029,12 @@
         <v>0</v>
       </c>
       <c r="AG528" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="529" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A529" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B529">
         <v>0</v>
@@ -57131,12 +57130,12 @@
         <v>0</v>
       </c>
       <c r="AG529" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="530" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A530" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B530">
         <v>0</v>
@@ -57232,12 +57231,12 @@
         <v>0</v>
       </c>
       <c r="AG530" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="531" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A531" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B531">
         <v>119</v>
@@ -57333,12 +57332,12 @@
         <v>0</v>
       </c>
       <c r="AG531" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="532" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A532" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B532">
         <v>135</v>
@@ -57434,12 +57433,12 @@
         <v>0</v>
       </c>
       <c r="AG532" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="533" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A533" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B533">
         <v>0</v>
@@ -57535,12 +57534,12 @@
         <v>0</v>
       </c>
       <c r="AG533" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="534" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A534" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B534">
         <v>0</v>
@@ -57636,12 +57635,12 @@
         <v>1</v>
       </c>
       <c r="AG534" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="535" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A535" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B535">
         <v>0</v>
@@ -57737,12 +57736,12 @@
         <v>0</v>
       </c>
       <c r="AG535" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="536" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A536" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B536">
         <v>955</v>
@@ -57838,12 +57837,12 @@
         <v>1</v>
       </c>
       <c r="AG536" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="537" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A537" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B537">
         <v>0</v>
@@ -57939,12 +57938,12 @@
         <v>0</v>
       </c>
       <c r="AG537" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="538" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A538" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B538">
         <v>0</v>
@@ -58040,12 +58039,12 @@
         <v>0</v>
       </c>
       <c r="AG538" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="539" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A539" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B539">
         <v>65</v>
@@ -58141,12 +58140,12 @@
         <v>0</v>
       </c>
       <c r="AG539" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="540" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A540" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B540">
         <v>0</v>
@@ -58242,12 +58241,12 @@
         <v>0</v>
       </c>
       <c r="AG540" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="541" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A541" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B541">
         <v>0</v>
@@ -58343,12 +58342,12 @@
         <v>0</v>
       </c>
       <c r="AG541" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="542" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A542" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B542">
         <v>0</v>
@@ -58444,7 +58443,7 @@
         <v>0</v>
       </c>
       <c r="AG542" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
   </sheetData>
